--- a/RZ700单扇双扇同噪声数据.xlsx
+++ b/RZ700单扇双扇同噪声数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/RZ700测试/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA4CA79-299A-D749-AAD8-5E3CA9568427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B944DF-49D5-BE4F-AB57-33AB962F6A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>单扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,11 +35,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9RA12038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AK700塔体+AK700原扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9RA12025+原版后扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健策12025+原版后扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单健策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单9RA12025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单莫比乌斯120P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双莫比乌斯120P</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,15 +427,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -436,138 +456,312 @@
       </c>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:27">
       <c r="A2">
-        <v>46.6</v>
+        <v>45.5</v>
       </c>
       <c r="B2">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="C2">
+        <v>2526</v>
+      </c>
+      <c r="D2">
+        <v>47.3</v>
+      </c>
+      <c r="E2">
+        <v>81.8</v>
+      </c>
+      <c r="F2">
+        <v>2528</v>
+      </c>
+      <c r="G2">
+        <v>47.7</v>
+      </c>
+      <c r="H2">
+        <v>78.3</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>81.3</v>
+      </c>
+      <c r="L2">
+        <v>2530</v>
+      </c>
+      <c r="M2">
+        <v>47</v>
+      </c>
+      <c r="N2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="O2">
+        <v>2526</v>
+      </c>
+      <c r="P2">
+        <v>54.3</v>
+      </c>
+      <c r="Q2">
+        <v>80</v>
+      </c>
+      <c r="R2">
+        <v>3772</v>
+      </c>
+      <c r="S2">
+        <v>55.6</v>
+      </c>
+      <c r="T2">
+        <v>79.7</v>
+      </c>
+      <c r="U2">
+        <v>4032</v>
+      </c>
+      <c r="V2">
+        <v>47</v>
+      </c>
+      <c r="W2">
+        <v>82.2</v>
+      </c>
+      <c r="X2">
+        <v>2397</v>
+      </c>
+      <c r="Y2">
+        <v>44</v>
+      </c>
+      <c r="Z2">
+        <v>83</v>
+      </c>
+      <c r="AA2">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3">
+        <v>44</v>
+      </c>
+      <c r="B3">
         <v>82.6</v>
       </c>
-      <c r="C2">
-        <v>2524</v>
-      </c>
-      <c r="D2">
-        <v>48.8</v>
-      </c>
-      <c r="E2">
-        <v>82.5</v>
-      </c>
-      <c r="F2">
-        <v>2521</v>
-      </c>
-      <c r="G2">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="H2">
-        <v>79.400000000000006</v>
-      </c>
-      <c r="I2">
-        <v>4412</v>
-      </c>
-      <c r="J2">
-        <v>47.7</v>
-      </c>
-      <c r="K2">
-        <v>78.3</v>
-      </c>
-      <c r="L2">
+      <c r="C3">
+        <v>2397</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>82.8</v>
+      </c>
+      <c r="F3">
+        <v>2079</v>
+      </c>
+      <c r="G3">
+        <v>44.3</v>
+      </c>
+      <c r="H3">
+        <v>79</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <v>82.2</v>
+      </c>
+      <c r="L3">
+        <v>2143</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>82.3</v>
+      </c>
+      <c r="O3">
+        <v>2123</v>
+      </c>
+      <c r="P3">
+        <v>49.9</v>
+      </c>
+      <c r="Q3">
+        <v>81.3</v>
+      </c>
+      <c r="R3">
+        <v>3069</v>
+      </c>
+      <c r="S3">
+        <v>50.2</v>
+      </c>
+      <c r="T3">
+        <v>80.5</v>
+      </c>
+      <c r="U3">
+        <v>3247</v>
+      </c>
+      <c r="V3">
+        <v>43</v>
+      </c>
+      <c r="W3">
+        <v>83</v>
+      </c>
+      <c r="X3">
+        <v>2081</v>
+      </c>
+      <c r="Y3">
+        <v>42.8</v>
+      </c>
+      <c r="Z3">
+        <v>83.4</v>
+      </c>
+      <c r="AA3">
+        <v>2257</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3">
-        <v>45</v>
-      </c>
-      <c r="B3">
-        <v>83.2</v>
-      </c>
-      <c r="C3">
-        <v>2355</v>
-      </c>
-      <c r="D3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>83.6</v>
-      </c>
-      <c r="F3">
-        <v>1853</v>
-      </c>
-      <c r="G3">
-        <v>50.2</v>
-      </c>
-      <c r="H3">
-        <v>81.900000000000006</v>
-      </c>
-      <c r="I3">
-        <v>2505</v>
-      </c>
-      <c r="J3">
-        <v>44.3</v>
-      </c>
-      <c r="K3">
-        <v>79</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>40</v>
       </c>
       <c r="B4">
-        <v>84.5</v>
+        <v>83.9</v>
       </c>
       <c r="C4">
-        <v>1910</v>
+        <v>2003</v>
       </c>
       <c r="D4">
-        <v>40.4</v>
+        <v>40</v>
       </c>
       <c r="E4">
-        <v>85.4</v>
+        <v>83.6</v>
       </c>
       <c r="F4">
-        <v>1355</v>
+        <v>1823</v>
       </c>
       <c r="G4">
-        <v>45</v>
+        <v>40.5</v>
       </c>
       <c r="H4">
+        <v>80.3</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>39.9</v>
+      </c>
+      <c r="K4">
+        <v>83.3</v>
+      </c>
+      <c r="L4">
+        <v>1825</v>
+      </c>
+      <c r="M4">
+        <v>40</v>
+      </c>
+      <c r="N4">
         <v>83.2</v>
       </c>
-      <c r="I4">
-        <v>2040</v>
-      </c>
-      <c r="J4">
-        <v>40.5</v>
-      </c>
-      <c r="K4">
-        <v>80.3</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
+      <c r="O4">
+        <v>1850</v>
+      </c>
+      <c r="P4">
+        <v>44</v>
+      </c>
+      <c r="Q4">
+        <v>82.5</v>
+      </c>
+      <c r="R4">
+        <v>2424</v>
+      </c>
+      <c r="S4">
+        <v>44</v>
+      </c>
+      <c r="T4">
+        <v>82</v>
+      </c>
+      <c r="U4">
+        <v>2511</v>
+      </c>
+      <c r="V4">
+        <v>40</v>
+      </c>
+      <c r="W4">
+        <v>83.6</v>
+      </c>
+      <c r="X4">
+        <v>1840</v>
+      </c>
+      <c r="Y4">
+        <v>40</v>
+      </c>
+      <c r="Z4">
+        <v>84.1</v>
+      </c>
+      <c r="AA4">
+        <v>1982</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="G5">
+    <row r="5" spans="1:27">
+      <c r="P5">
         <v>40</v>
       </c>
-      <c r="H5">
-        <v>84.9</v>
-      </c>
-      <c r="I5">
-        <v>1621</v>
+      <c r="Q5">
+        <v>83.6</v>
+      </c>
+      <c r="R5">
+        <v>2079</v>
+      </c>
+      <c r="S5">
+        <v>40</v>
+      </c>
+      <c r="T5">
+        <v>82.9</v>
+      </c>
+      <c r="U5">
+        <v>2133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RZ700单扇双扇同噪声数据.xlsx
+++ b/RZ700单扇双扇同噪声数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B944DF-49D5-BE4F-AB57-33AB962F6A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEA7539-CADA-074F-A740-DDEFEE16AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>单扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>双莫比乌斯120P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双LP12E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单LP12E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -427,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AA5" sqref="AA5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,8 +489,18 @@
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
+      <c r="AB1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>45.5</v>
       </c>
@@ -564,8 +582,26 @@
       <c r="AA2">
         <v>2373</v>
       </c>
+      <c r="AB2">
+        <v>57.5</v>
+      </c>
+      <c r="AC2">
+        <v>80.3</v>
+      </c>
+      <c r="AD2">
+        <v>3015</v>
+      </c>
+      <c r="AE2">
+        <v>55.7</v>
+      </c>
+      <c r="AF2">
+        <v>80.7</v>
+      </c>
+      <c r="AG2">
+        <v>3011</v>
+      </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>44</v>
       </c>
@@ -647,8 +683,26 @@
       <c r="AA3">
         <v>2257</v>
       </c>
+      <c r="AB3">
+        <v>44.9</v>
+      </c>
+      <c r="AC3">
+        <v>82.5</v>
+      </c>
+      <c r="AD3">
+        <v>1898</v>
+      </c>
+      <c r="AE3">
+        <v>45</v>
+      </c>
+      <c r="AF3">
+        <v>82.7</v>
+      </c>
+      <c r="AG3">
+        <v>2016</v>
+      </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>40</v>
       </c>
@@ -730,8 +784,26 @@
       <c r="AA4">
         <v>1982</v>
       </c>
+      <c r="AB4">
+        <v>40.1</v>
+      </c>
+      <c r="AC4">
+        <v>83.5</v>
+      </c>
+      <c r="AD4">
+        <v>1582</v>
+      </c>
+      <c r="AE4">
+        <v>40</v>
+      </c>
+      <c r="AF4">
+        <v>84.1</v>
+      </c>
+      <c r="AG4">
+        <v>1662</v>
+      </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:33">
       <c r="P5">
         <v>40</v>
       </c>
@@ -752,7 +824,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AG1"/>
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="P1:R1"/>

--- a/RZ700单扇双扇同噪声数据.xlsx
+++ b/RZ700单扇双扇同噪声数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEA7539-CADA-074F-A740-DDEFEE16AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE4D93-C0EA-5141-98F7-F6E87AC09F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
   <dimension ref="A1:AG5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -480,22 +480,22 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF1" s="1"/>
       <c r="AG1" s="1"/>
@@ -565,40 +565,40 @@
         <v>4032</v>
       </c>
       <c r="V2">
+        <v>44</v>
+      </c>
+      <c r="W2">
+        <v>83</v>
+      </c>
+      <c r="X2">
+        <v>2373</v>
+      </c>
+      <c r="Y2">
         <v>47</v>
       </c>
-      <c r="W2">
+      <c r="Z2">
         <v>82.2</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>2397</v>
       </c>
-      <c r="Y2">
-        <v>44</v>
-      </c>
-      <c r="Z2">
-        <v>83</v>
-      </c>
-      <c r="AA2">
-        <v>2373</v>
-      </c>
       <c r="AB2">
+        <v>55.7</v>
+      </c>
+      <c r="AC2">
+        <v>80.7</v>
+      </c>
+      <c r="AD2">
+        <v>3011</v>
+      </c>
+      <c r="AE2">
         <v>57.5</v>
       </c>
-      <c r="AC2">
+      <c r="AF2">
         <v>80.3</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>3015</v>
-      </c>
-      <c r="AE2">
-        <v>55.7</v>
-      </c>
-      <c r="AF2">
-        <v>80.7</v>
-      </c>
-      <c r="AG2">
-        <v>3011</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -666,40 +666,40 @@
         <v>3247</v>
       </c>
       <c r="V3">
+        <v>42.8</v>
+      </c>
+      <c r="W3">
+        <v>83.4</v>
+      </c>
+      <c r="X3">
+        <v>2257</v>
+      </c>
+      <c r="Y3">
         <v>43</v>
       </c>
-      <c r="W3">
+      <c r="Z3">
         <v>83</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>2081</v>
       </c>
-      <c r="Y3">
-        <v>42.8</v>
-      </c>
-      <c r="Z3">
-        <v>83.4</v>
-      </c>
-      <c r="AA3">
-        <v>2257</v>
-      </c>
       <c r="AB3">
+        <v>45</v>
+      </c>
+      <c r="AC3">
+        <v>82.7</v>
+      </c>
+      <c r="AD3">
+        <v>2016</v>
+      </c>
+      <c r="AE3">
         <v>44.9</v>
       </c>
-      <c r="AC3">
+      <c r="AF3">
         <v>82.5</v>
       </c>
-      <c r="AD3">
+      <c r="AG3">
         <v>1898</v>
-      </c>
-      <c r="AE3">
-        <v>45</v>
-      </c>
-      <c r="AF3">
-        <v>82.7</v>
-      </c>
-      <c r="AG3">
-        <v>2016</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -770,37 +770,37 @@
         <v>40</v>
       </c>
       <c r="W4">
-        <v>83.6</v>
+        <v>84.1</v>
       </c>
       <c r="X4">
-        <v>1840</v>
+        <v>1982</v>
       </c>
       <c r="Y4">
         <v>40</v>
       </c>
       <c r="Z4">
+        <v>83.6</v>
+      </c>
+      <c r="AA4">
+        <v>1840</v>
+      </c>
+      <c r="AB4">
+        <v>40</v>
+      </c>
+      <c r="AC4">
         <v>84.1</v>
       </c>
-      <c r="AA4">
-        <v>1982</v>
-      </c>
-      <c r="AB4">
+      <c r="AD4">
+        <v>1662</v>
+      </c>
+      <c r="AE4">
         <v>40.1</v>
       </c>
-      <c r="AC4">
+      <c r="AF4">
         <v>83.5</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>1582</v>
-      </c>
-      <c r="AE4">
-        <v>40</v>
-      </c>
-      <c r="AF4">
-        <v>84.1</v>
-      </c>
-      <c r="AG4">
-        <v>1662</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -825,17 +825,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
     <mergeCell ref="M1:O1"/>
+    <mergeCell ref="AE1:AG1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RZ700单扇双扇同噪声数据.xlsx
+++ b/RZ700单扇双扇同噪声数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AE4D93-C0EA-5141-98F7-F6E87AC09F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B45CB4-0293-D84D-BED7-4E81637F8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="17960" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
@@ -25,17 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>单扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>双扇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AK700塔体+AK700原扇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -435,15 +431,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1:AG1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,22 +481,17 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
       <c r="AB1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
-      <c r="AE1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2" spans="1:30">
       <c r="A2">
         <v>45.5</v>
       </c>
@@ -520,88 +511,79 @@
         <v>2528</v>
       </c>
       <c r="G2">
-        <v>47.7</v>
+        <v>47</v>
       </c>
       <c r="H2">
-        <v>78.3</v>
+        <v>81.3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2530</v>
       </c>
       <c r="J2">
         <v>47</v>
       </c>
       <c r="K2">
-        <v>81.3</v>
+        <v>81.599999999999994</v>
       </c>
       <c r="L2">
-        <v>2530</v>
+        <v>2526</v>
       </c>
       <c r="M2">
+        <v>54.3</v>
+      </c>
+      <c r="N2">
+        <v>80</v>
+      </c>
+      <c r="O2">
+        <v>3772</v>
+      </c>
+      <c r="P2">
+        <v>55.6</v>
+      </c>
+      <c r="Q2">
+        <v>79.7</v>
+      </c>
+      <c r="R2">
+        <v>4032</v>
+      </c>
+      <c r="S2">
+        <v>44</v>
+      </c>
+      <c r="T2">
+        <v>83</v>
+      </c>
+      <c r="U2">
+        <v>2373</v>
+      </c>
+      <c r="V2">
         <v>47</v>
       </c>
-      <c r="N2">
-        <v>81.599999999999994</v>
-      </c>
-      <c r="O2">
-        <v>2526</v>
-      </c>
-      <c r="P2">
-        <v>54.3</v>
-      </c>
-      <c r="Q2">
-        <v>80</v>
-      </c>
-      <c r="R2">
-        <v>3772</v>
-      </c>
-      <c r="S2">
-        <v>55.6</v>
-      </c>
-      <c r="T2">
-        <v>79.7</v>
-      </c>
-      <c r="U2">
-        <v>4032</v>
-      </c>
-      <c r="V2">
-        <v>44</v>
-      </c>
       <c r="W2">
-        <v>83</v>
+        <v>82.2</v>
       </c>
       <c r="X2">
-        <v>2373</v>
+        <v>2397</v>
       </c>
       <c r="Y2">
-        <v>47</v>
+        <v>55.7</v>
       </c>
       <c r="Z2">
-        <v>82.2</v>
+        <v>80.7</v>
       </c>
       <c r="AA2">
-        <v>2397</v>
+        <v>3011</v>
       </c>
       <c r="AB2">
-        <v>55.7</v>
+        <v>57.5</v>
       </c>
       <c r="AC2">
-        <v>80.7</v>
+        <v>80.3</v>
       </c>
       <c r="AD2">
-        <v>3011</v>
-      </c>
-      <c r="AE2">
-        <v>57.5</v>
-      </c>
-      <c r="AF2">
-        <v>80.3</v>
-      </c>
-      <c r="AG2">
         <v>3015</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:30">
       <c r="A3">
         <v>44</v>
       </c>
@@ -621,88 +603,79 @@
         <v>2079</v>
       </c>
       <c r="G3">
-        <v>44.3</v>
+        <v>44</v>
       </c>
       <c r="H3">
-        <v>79</v>
+        <v>82.2</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2143</v>
       </c>
       <c r="J3">
         <v>44</v>
       </c>
       <c r="K3">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="L3">
-        <v>2143</v>
+        <v>2123</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>49.9</v>
       </c>
       <c r="N3">
-        <v>82.3</v>
+        <v>81.3</v>
       </c>
       <c r="O3">
-        <v>2123</v>
+        <v>3069</v>
       </c>
       <c r="P3">
-        <v>49.9</v>
+        <v>50.2</v>
       </c>
       <c r="Q3">
-        <v>81.3</v>
+        <v>80.5</v>
       </c>
       <c r="R3">
-        <v>3069</v>
+        <v>3247</v>
       </c>
       <c r="S3">
-        <v>50.2</v>
+        <v>42.8</v>
       </c>
       <c r="T3">
-        <v>80.5</v>
+        <v>83.4</v>
       </c>
       <c r="U3">
-        <v>3247</v>
+        <v>2257</v>
       </c>
       <c r="V3">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="W3">
-        <v>83.4</v>
+        <v>83</v>
       </c>
       <c r="X3">
-        <v>2257</v>
+        <v>2081</v>
       </c>
       <c r="Y3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z3">
-        <v>83</v>
+        <v>82.7</v>
       </c>
       <c r="AA3">
-        <v>2081</v>
+        <v>2016</v>
       </c>
       <c r="AB3">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="AC3">
-        <v>82.7</v>
+        <v>82.5</v>
       </c>
       <c r="AD3">
-        <v>2016</v>
-      </c>
-      <c r="AE3">
-        <v>44.9</v>
-      </c>
-      <c r="AF3">
-        <v>82.5</v>
-      </c>
-      <c r="AG3">
         <v>1898</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:30">
       <c r="A4">
         <v>40</v>
       </c>
@@ -722,120 +695,110 @@
         <v>1823</v>
       </c>
       <c r="G4">
-        <v>40.5</v>
+        <v>39.9</v>
       </c>
       <c r="H4">
-        <v>80.3</v>
+        <v>83.3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1825</v>
       </c>
       <c r="J4">
-        <v>39.9</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="L4">
-        <v>1825</v>
+        <v>1850</v>
       </c>
       <c r="M4">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N4">
-        <v>83.2</v>
+        <v>82.5</v>
       </c>
       <c r="O4">
-        <v>1850</v>
+        <v>2424</v>
       </c>
       <c r="P4">
         <v>44</v>
       </c>
       <c r="Q4">
-        <v>82.5</v>
+        <v>82</v>
       </c>
       <c r="R4">
-        <v>2424</v>
+        <v>2511</v>
       </c>
       <c r="S4">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="T4">
-        <v>82</v>
+        <v>84.1</v>
       </c>
       <c r="U4">
-        <v>2511</v>
+        <v>1982</v>
       </c>
       <c r="V4">
         <v>40</v>
       </c>
       <c r="W4">
-        <v>84.1</v>
+        <v>83.6</v>
       </c>
       <c r="X4">
-        <v>1982</v>
+        <v>1840</v>
       </c>
       <c r="Y4">
         <v>40</v>
       </c>
       <c r="Z4">
+        <v>84.1</v>
+      </c>
+      <c r="AA4">
+        <v>1662</v>
+      </c>
+      <c r="AB4">
+        <v>40.1</v>
+      </c>
+      <c r="AC4">
+        <v>83.5</v>
+      </c>
+      <c r="AD4">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="M5">
+        <v>40</v>
+      </c>
+      <c r="N5">
         <v>83.6</v>
       </c>
-      <c r="AA4">
-        <v>1840</v>
-      </c>
-      <c r="AB4">
-        <v>40</v>
-      </c>
-      <c r="AC4">
-        <v>84.1</v>
-      </c>
-      <c r="AD4">
-        <v>1662</v>
-      </c>
-      <c r="AE4">
-        <v>40.1</v>
-      </c>
-      <c r="AF4">
-        <v>83.5</v>
-      </c>
-      <c r="AG4">
-        <v>1582</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+      <c r="O5">
+        <v>2079</v>
+      </c>
       <c r="P5">
         <v>40</v>
       </c>
       <c r="Q5">
-        <v>83.6</v>
+        <v>82.9</v>
       </c>
       <c r="R5">
-        <v>2079</v>
-      </c>
-      <c r="S5">
-        <v>40</v>
-      </c>
-      <c r="T5">
-        <v>82.9</v>
-      </c>
-      <c r="U5">
         <v>2133</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="S1:U1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="P1:R1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="AE1:AG1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="Y1:AA1"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
